--- a/Assets/GameMain/DataTables/xlsx/Selection.xlsx
+++ b/Assets/GameMain/DataTables/xlsx/Selection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="13140"/>
+    <workbookView windowWidth="14400" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,28 +49,28 @@
     <t>选项对应对话ID</t>
   </si>
   <si>
-    <t>在</t>
-  </si>
-  <si>
-    <t>记得</t>
-  </si>
-  <si>
-    <t>忘记了</t>
+    <t>我在</t>
+  </si>
+  <si>
+    <t>关于上次的失误……</t>
+  </si>
+  <si>
+    <t>我需要做些什么？</t>
+  </si>
+  <si>
+    <t>通讯工作</t>
   </si>
   <si>
     <t>身体指标</t>
   </si>
   <si>
-    <t>飞船导航</t>
-  </si>
-  <si>
-    <t>我上次的失误</t>
-  </si>
-  <si>
-    <t>开始任务</t>
+    <t>开始任务吧！</t>
   </si>
   <si>
     <t>进入Mobius</t>
+  </si>
+  <si>
+    <t>空置选项</t>
   </si>
   <si>
     <t>关于新搭档</t>
@@ -120,12 +120,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,14 +135,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,48 +155,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,6 +172,89 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -217,7 +263,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,53 +279,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,187 +293,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +484,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,6 +513,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,23 +568,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,39 +584,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,10 +592,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,141 +604,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1057,7 +1066,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1139,11 +1148,11 @@
         <v>102</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
-        <v>1005</v>
+      <c r="E6" s="1">
+        <v>1008</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1151,44 +1160,44 @@
         <v>103</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>1006</v>
+      <c r="E7" s="1">
+        <v>1012</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1">
         <v>104</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
-        <v>1016</v>
+      <c r="E8" s="1">
+        <v>1019</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1">
         <v>105</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>1017</v>
+      <c r="E9" s="1">
+        <v>1022</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1">
         <v>106</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10">
-        <v>1018</v>
+      <c r="E10" s="1">
+        <v>1025</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1198,8 +1207,8 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11">
-        <v>1019</v>
+      <c r="E11" s="1">
+        <v>1028</v>
       </c>
     </row>
     <row r="12" spans="2:5">

--- a/Assets/GameMain/DataTables/xlsx/Selection.xlsx
+++ b/Assets/GameMain/DataTables/xlsx/Selection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12990"/>
+    <workbookView windowWidth="28785" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>#</t>
   </si>
@@ -49,6 +49,9 @@
     <t>选项对应对话ID</t>
   </si>
   <si>
+    <t>0引入</t>
+  </si>
+  <si>
     <t>我在</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>空置选项</t>
   </si>
   <si>
+    <t>1_4.0</t>
+  </si>
+  <si>
     <t>关于新搭档</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
   </si>
   <si>
     <t>没有其它问题了</t>
+  </si>
+  <si>
+    <t>退出ICA通讯室</t>
   </si>
   <si>
     <t>你好</t>
@@ -120,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -140,8 +149,46 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -149,17 +196,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,8 +225,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -180,75 +256,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,22 +271,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,25 +302,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,157 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,17 +496,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,50 +568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,10 +601,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,138 +613,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1063,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1079,19 +1091,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
       <c r="D2" t="s">
         <v>3</v>
       </c>
@@ -1103,10 +1115,10 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="2"/>
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -1118,10 +1130,10 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -1132,247 +1144,288 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>101</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>1002</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>102</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
         <v>1008</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>103</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2">
         <v>1012</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="1">
+    <row r="8" s="1" customFormat="1" spans="2:5">
+      <c r="B8" s="2">
         <v>104</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
         <v>1019</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>105</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
         <v>1022</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>106</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2">
         <v>1025</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1028</v>
+        <v>18</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1027</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>1031</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>109</v>
       </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1035</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>110</v>
       </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1036</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>111</v>
       </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>1037</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>112</v>
       </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>1038</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>113</v>
       </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>1039</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="1">
+      <c r="B18" s="2">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="2">
         <v>501</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18">
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2">
         <v>5004</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="1">
+    <row r="20" spans="2:5">
+      <c r="B20" s="2">
         <v>502</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19">
-        <v>5005</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="1">
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="2">
         <v>503</v>
       </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
         <v>5012</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="1">
+    <row r="22" spans="2:5">
+      <c r="B22" s="2">
         <v>504</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22">
         <v>5016</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="1">
+    <row r="23" spans="2:5">
+      <c r="B23" s="2">
         <v>505</v>
       </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22">
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
         <v>5026</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="1">
+    <row r="24" spans="2:5">
+      <c r="B24" s="2">
         <v>506</v>
       </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23">
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24">
         <v>5028</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="1">
+    <row r="25" spans="2:5">
+      <c r="B25" s="2">
         <v>507</v>
       </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24">
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
         <v>5029</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="1">
+    <row r="26" spans="2:5">
+      <c r="B26" s="2">
         <v>508</v>
       </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25">
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26">
         <v>5036</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="1">
+    <row r="27" spans="2:5">
+      <c r="B27" s="2">
         <v>509</v>
       </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26">
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27">
         <v>5044</v>
       </c>
     </row>

--- a/Assets/GameMain/DataTables/xlsx/Selection.xlsx
+++ b/Assets/GameMain/DataTables/xlsx/Selection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -122,6 +122,75 @@
   </si>
   <si>
     <t>返回ICA MessageBox</t>
+  </si>
+  <si>
+    <t>你会想家吗</t>
+  </si>
+  <si>
+    <t>宇航员的生活就是这样吧</t>
+  </si>
+  <si>
+    <t>为什么</t>
+  </si>
+  <si>
+    <t>我能理解</t>
+  </si>
+  <si>
+    <t>看过了</t>
+  </si>
+  <si>
+    <t>还没有</t>
+  </si>
+  <si>
+    <t>我需要做什么</t>
+  </si>
+  <si>
+    <t>关于小行星</t>
+  </si>
+  <si>
+    <t>开始执行任务吧</t>
+  </si>
+  <si>
+    <t>询问偏航情况</t>
+  </si>
+  <si>
+    <t>坚持己见</t>
+  </si>
+  <si>
+    <t>选择让步</t>
+  </si>
+  <si>
+    <t>批准</t>
+  </si>
+  <si>
+    <t>关于职级晋升</t>
+  </si>
+  <si>
+    <t>关于星图</t>
+  </si>
+  <si>
+    <t>关于宇航员培训的申请</t>
+  </si>
+  <si>
+    <t>星际旅行综合征</t>
+  </si>
+  <si>
+    <t>治疗方法</t>
+  </si>
+  <si>
+    <t>任务的危险程度</t>
+  </si>
+  <si>
+    <t>开始任务吧</t>
+  </si>
+  <si>
+    <t>听起来有点可怕</t>
+  </si>
+  <si>
+    <t>我不会让这种事发生的</t>
+  </si>
+  <si>
+    <t>切换至Mobius通讯频道</t>
   </si>
 </sst>
 </file>
@@ -130,9 +199,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -150,6 +219,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -157,7 +241,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,39 +294,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,40 +341,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,32 +355,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +371,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -314,55 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,55 +533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,55 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +562,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,15 +624,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,45 +652,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -601,145 +670,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,10 +1144,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1429,6 +1498,281 @@
         <v>5044</v>
       </c>
     </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="2">
+        <v>601</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="2">
+        <v>602</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30">
+        <v>603</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31">
+        <v>604</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <v>6018</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32">
+        <v>605</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>6062</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33">
+        <v>606</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33">
+        <v>6063</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34">
+        <v>607</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <v>6066</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35">
+        <v>608</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>6067</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36">
+        <v>609</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>6068</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37">
+        <v>610</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38">
+        <v>611</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38">
+        <v>6088</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39">
+        <v>612</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40">
+        <v>613</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40">
+        <v>6107</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41">
+        <v>614</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41">
+        <v>6123</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42">
+        <v>615</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43">
+        <v>616</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44">
+        <v>617</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45">
+        <v>618</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46">
+        <v>619</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47">
+        <v>620</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47">
+        <v>6157</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48">
+        <v>621</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48">
+        <v>6163</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49">
+        <v>622</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>6175</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50">
+        <v>623</v>
+      </c>
+      <c r="D50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51">
+        <v>624</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51">
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52">
+        <v>625</v>
+      </c>
+      <c r="D52" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52">
+        <v>6177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/GameMain/DataTables/xlsx/Selection.xlsx
+++ b/Assets/GameMain/DataTables/xlsx/Selection.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="100">
   <si>
     <t>#</t>
   </si>
@@ -191,6 +191,129 @@
   </si>
   <si>
     <t>切换至Mobius通讯频道</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>认知量表</t>
+  </si>
+  <si>
+    <t>社交隔离</t>
+  </si>
+  <si>
+    <t>建议控制饮食</t>
+  </si>
+  <si>
+    <t>建议加强锻炼</t>
+  </si>
+  <si>
+    <t>呼叫红隼号</t>
+  </si>
+  <si>
+    <t>拒绝</t>
+  </si>
+  <si>
+    <t>向主管报告</t>
+  </si>
+  <si>
+    <t>好吧，批准你的申请</t>
+  </si>
+  <si>
+    <t>下达出发指令</t>
+  </si>
+  <si>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>焦急追问</t>
+  </si>
+  <si>
+    <t>耐心引导</t>
+  </si>
+  <si>
+    <t>纠正错误</t>
+  </si>
+  <si>
+    <t>将错就错</t>
+  </si>
+  <si>
+    <t>询问飞船AI</t>
+  </si>
+  <si>
+    <t>回来补办一个</t>
+  </si>
+  <si>
+    <t>还是赶紧执行任务吧</t>
+  </si>
+  <si>
+    <t>纠正偏航</t>
+  </si>
+  <si>
+    <t>继续询问航行情况</t>
+  </si>
+  <si>
+    <t>允许红隼号切换至手动操作模式</t>
+  </si>
+  <si>
+    <t>询问航行情况</t>
+  </si>
+  <si>
+    <t>拒绝红隼号切换至手动操作模式</t>
+  </si>
+  <si>
+    <t>身体检测的结果</t>
+  </si>
+  <si>
+    <t>和缓劝说</t>
+  </si>
+  <si>
+    <t>打断他的话</t>
+  </si>
+  <si>
+    <t>我是No.1421</t>
+  </si>
+  <si>
+    <t>我叫$name</t>
+  </si>
+  <si>
+    <t>我是你的搭档</t>
+  </si>
+  <si>
+    <t>第一次合作</t>
+  </si>
+  <si>
+    <t>第一次发生争执</t>
+  </si>
+  <si>
+    <t>你的退休计划</t>
+  </si>
+  <si>
+    <t>接入星际引航系统</t>
+  </si>
+  <si>
+    <t>他的身体状况如何</t>
+  </si>
+  <si>
+    <t>他有没有说什么</t>
+  </si>
+  <si>
+    <t>你怎么知道这个名字</t>
+  </si>
+  <si>
+    <t>高级联络员</t>
+  </si>
+  <si>
+    <t>结束通讯</t>
+  </si>
+  <si>
+    <t>询问原因</t>
+  </si>
+  <si>
+    <t>关于最后一个任务</t>
+  </si>
+  <si>
+    <t>想要探望宇航员</t>
   </si>
 </sst>
 </file>
@@ -199,9 +322,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -218,21 +341,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -241,46 +350,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,14 +388,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,22 +441,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -341,10 +448,26 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,13 +494,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,169 +656,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,25 +688,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -592,8 +702,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,26 +738,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +770,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -670,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,138 +805,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1144,10 +1270,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1160,19 +1286,19 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
       <c r="D2" t="s">
         <v>3</v>
       </c>
@@ -1184,10 +1310,10 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -1199,10 +1325,10 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
@@ -1213,10 +1339,10 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>101</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
@@ -1227,88 +1353,88 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>102</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>1008</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>103</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>1012</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:5">
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>104</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>1019</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>105</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>1022</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>106</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>1025</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>107</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>1027</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>108</v>
       </c>
       <c r="D12" t="s">
@@ -1319,7 +1445,7 @@
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>109</v>
       </c>
       <c r="C13" t="s">
@@ -1333,7 +1459,7 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>110</v>
       </c>
       <c r="C14" t="s">
@@ -1347,7 +1473,7 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>111</v>
       </c>
       <c r="C15" t="s">
@@ -1361,7 +1487,7 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>112</v>
       </c>
       <c r="C16" t="s">
@@ -1375,7 +1501,7 @@
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>113</v>
       </c>
       <c r="C17" t="s">
@@ -1389,7 +1515,7 @@
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>114</v>
       </c>
       <c r="D18" t="s">
@@ -1400,29 +1526,29 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>501</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>5004</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>502</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>1029</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>503</v>
       </c>
       <c r="D21" t="s">
@@ -1433,7 +1559,7 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>504</v>
       </c>
       <c r="D22" t="s">
@@ -1444,7 +1570,7 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>505</v>
       </c>
       <c r="D23" t="s">
@@ -1455,7 +1581,7 @@
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>506</v>
       </c>
       <c r="D24" t="s">
@@ -1466,7 +1592,7 @@
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>507</v>
       </c>
       <c r="D25" t="s">
@@ -1477,7 +1603,7 @@
       </c>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>508</v>
       </c>
       <c r="D26" t="s">
@@ -1488,7 +1614,7 @@
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>509</v>
       </c>
       <c r="D27" t="s">
@@ -1499,7 +1625,7 @@
       </c>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>601</v>
       </c>
       <c r="D28" t="s">
@@ -1510,7 +1636,7 @@
       </c>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>602</v>
       </c>
       <c r="D29" t="s">
@@ -1771,6 +1897,501 @@
       </c>
       <c r="E52">
         <v>6177</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53">
+        <v>626</v>
+      </c>
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54">
+        <v>627</v>
+      </c>
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54">
+        <v>6201</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55">
+        <v>628</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55">
+        <v>6207</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56">
+        <v>629</v>
+      </c>
+      <c r="D56" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56">
+        <v>6191</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57">
+        <v>630</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58">
+        <v>631</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58">
+        <v>6217</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59">
+        <v>632</v>
+      </c>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59">
+        <v>6226</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60">
+        <v>633</v>
+      </c>
+      <c r="D60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E60">
+        <v>6247</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61">
+        <v>634</v>
+      </c>
+      <c r="D61" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61">
+        <v>6258</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62">
+        <v>635</v>
+      </c>
+      <c r="D62" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62">
+        <v>6271</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63">
+        <v>636</v>
+      </c>
+      <c r="D63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63">
+        <v>6276</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64">
+        <v>637</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64">
+        <v>6283</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65">
+        <v>638</v>
+      </c>
+      <c r="D65" t="s">
+        <v>70</v>
+      </c>
+      <c r="E65">
+        <v>6295</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66">
+        <v>639</v>
+      </c>
+      <c r="D66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67">
+        <v>640</v>
+      </c>
+      <c r="D67" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67">
+        <v>6306</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68">
+        <v>641</v>
+      </c>
+      <c r="D68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68">
+        <v>6310</v>
+      </c>
+    </row>
+    <row r="69" s="2" customFormat="1" spans="2:5">
+      <c r="B69" s="2">
+        <v>642</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="2">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="70" s="2" customFormat="1" spans="2:5">
+      <c r="B70" s="2">
+        <v>643</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="2">
+        <v>6333</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71">
+        <v>644</v>
+      </c>
+      <c r="D71" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71">
+        <v>6337</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72">
+        <v>645</v>
+      </c>
+      <c r="D72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72">
+        <v>6354</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73">
+        <v>646</v>
+      </c>
+      <c r="D73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74">
+        <v>647</v>
+      </c>
+      <c r="D74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74">
+        <v>6369</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75">
+        <v>648</v>
+      </c>
+      <c r="D75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76">
+        <v>649</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76">
+        <v>6374</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77">
+        <v>650</v>
+      </c>
+      <c r="D77" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77">
+        <v>6371</v>
+      </c>
+    </row>
+    <row r="78" s="2" customFormat="1" spans="2:5">
+      <c r="B78" s="2">
+        <v>651</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E78" s="2">
+        <v>6375</v>
+      </c>
+    </row>
+    <row r="79" s="2" customFormat="1" spans="2:5">
+      <c r="B79" s="2">
+        <v>652</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="2">
+        <v>6378</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80">
+        <v>653</v>
+      </c>
+      <c r="D80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80">
+        <v>6394</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81">
+        <v>654</v>
+      </c>
+      <c r="D81" t="s">
+        <v>71</v>
+      </c>
+      <c r="E81">
+        <v>6397</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82">
+        <v>655</v>
+      </c>
+      <c r="D82" t="s">
+        <v>85</v>
+      </c>
+      <c r="E82">
+        <v>6411</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83">
+        <v>656</v>
+      </c>
+      <c r="D83" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83">
+        <v>6411</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84">
+        <v>657</v>
+      </c>
+      <c r="D84" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84">
+        <v>6411</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85">
+        <v>658</v>
+      </c>
+      <c r="D85" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85">
+        <v>6414</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86">
+        <v>659</v>
+      </c>
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86">
+        <v>6417</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87">
+        <v>660</v>
+      </c>
+      <c r="D87" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88">
+        <v>661</v>
+      </c>
+      <c r="D88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88">
+        <v>6436</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89">
+        <v>662</v>
+      </c>
+      <c r="D89" t="s">
+        <v>92</v>
+      </c>
+      <c r="E89">
+        <v>6449</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90">
+        <v>663</v>
+      </c>
+      <c r="D90" t="s">
+        <v>93</v>
+      </c>
+      <c r="E90">
+        <v>6452</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91">
+        <v>664</v>
+      </c>
+      <c r="D91" t="s">
+        <v>94</v>
+      </c>
+      <c r="E91">
+        <v>6464</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92">
+        <v>665</v>
+      </c>
+      <c r="D92" t="s">
+        <v>95</v>
+      </c>
+      <c r="E92">
+        <v>6465</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93">
+        <v>666</v>
+      </c>
+      <c r="D93" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93">
+        <v>6445</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94">
+        <v>667</v>
+      </c>
+      <c r="D94" t="s">
+        <v>96</v>
+      </c>
+      <c r="E94">
+        <v>6475</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95">
+        <v>668</v>
+      </c>
+      <c r="D95" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95">
+        <v>6479</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96">
+        <v>669</v>
+      </c>
+      <c r="D96" t="s">
+        <v>98</v>
+      </c>
+      <c r="E96">
+        <v>6486</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97">
+        <v>670</v>
+      </c>
+      <c r="D97" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97">
+        <v>6489</v>
       </c>
     </row>
   </sheetData>
